--- a/output2.xlsx
+++ b/output2.xlsx
@@ -55,7 +55,7 @@
     <t>admin3Pcode</t>
   </si>
   <si>
-    <t>Snnpr</t>
+    <t>Snnp</t>
   </si>
   <si>
     <t>Oromia</t>
@@ -70,7 +70,7 @@
     <t>Tigray</t>
   </si>
   <si>
-    <t>Beninshangul Gumuz</t>
+    <t>Benishangul Gumz</t>
   </si>
   <si>
     <t>Amhara</t>
